--- a/orcamento-empresa.xlsx
+++ b/orcamento-empresa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADM\Documents\Desenvolvimento\Web\AW\Projeto OMC e AW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254415B-CB6A-49DE-A061-647A5D128318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B7791-9FEA-426D-89F3-3FAD79AC837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Vostro 15 3515</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>HP OfficeJet Pro 9020</t>
-  </si>
-  <si>
-    <t>CANON</t>
-  </si>
-  <si>
-    <t>Canon Mega Tank Maxify GX7010</t>
   </si>
   <si>
     <t>TOTAL:</t>
@@ -99,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -155,6 +149,13 @@
       <color theme="2"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -265,11 +266,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -307,8 +309,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -527,10 +533,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -546,25 +552,25 @@
   <sheetData>
     <row r="1" spans="1:26" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -588,10 +594,10 @@
     </row>
     <row r="2" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -603,10 +609,11 @@
         <v>3299</v>
       </c>
       <c r="F2" s="3">
+        <f>PRODUCT(D2,E2)</f>
         <v>9897</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -630,25 +637,26 @@
     </row>
     <row r="3" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>9978.6299999999992</v>
+        <v>8412.85</v>
       </c>
       <c r="F3" s="3">
-        <v>29935.59</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>18</v>
+        <f t="shared" ref="F3:F4" si="0">PRODUCT(D3,E3)</f>
+        <v>25238.550000000003</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -670,9 +678,9 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -681,16 +689,17 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
         <v>1959.99</v>
       </c>
       <c r="F4" s="3">
-        <v>1959.99</v>
+        <f t="shared" si="0"/>
+        <v>3919.98</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -712,28 +721,22 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3699.99</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3699.99</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9">
+        <f>SUM(E2:E4)</f>
+        <v>13671.84</v>
+      </c>
+      <c r="F5" s="9">
+        <f>SUM(F2:F4)</f>
+        <v>39055.530000000006</v>
+      </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -754,50 +757,13 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9">
-        <f>SUM(E2:E5)</f>
-        <v>18937.61</v>
-      </c>
-      <c r="F6" s="9">
-        <f>SUM(F2:F5)</f>
-        <v>45492.569999999992</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="https://www.dell.com/pt-br/shop/notebooks/notebook-vostro-3515-amd-ryzen/spd/vostro-15-3515-laptop/v3515w6264w?gacd=9657105-15015-5761040-275878141-0&amp;dgc=ST&amp;cid=71700000099538581&amp;gclid=CjwKCAiAoL6eBhA3EiwAXDom5ixfStG7MYR9VAGlp5NW5fTuFxouCSn3vR3LO0TDZ--eIs" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://meupc.net/build/rL23tf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G4" r:id="rId3" display="https://www.kabum.com.br/produto/128917/impressora-multifuncional-hp-officejet-pro-9020-jato-de-tinta-colorido-wi-fi-bivolt-branco-e-preto-1mr69c-ac4?srsltid=Ad5pg_HkYbbeSa2dzw91s-6PVzZ1VGYvLd4QLS1ZZysdREEwpjplhlWReFI" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://www.kabum.com.br/produto/250123/impressora-multifuncional-canon-mega-tank-maxify-gx7010-colorida-wifi-ethernet-tela-lcd-usb-branco-4471c005aa?srsltid=Ad5pg_EwxSmYpJ4i2ji4tUtp29iJPzjgslg8Wi9rcKW2tkJK2CXT6nhjRGs" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId5"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
--- a/orcamento-empresa.xlsx
+++ b/orcamento-empresa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADM\Documents\Desenvolvimento\Web\AW\Projeto OMC e AW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B7791-9FEA-426D-89F3-3FAD79AC837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F519BB73-5349-4DD2-8B5C-861B3B1BFACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>Vostro 15 3515</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>HP</t>
   </si>
@@ -59,9 +56,6 @@
     <t>Impressora Multifuncional</t>
   </si>
   <si>
-    <t>Dell</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
@@ -84,6 +78,9 @@
   </si>
   <si>
     <t>Clique Aqui</t>
+  </si>
+  <si>
+    <t>HP 250-G8</t>
   </si>
 </sst>
 </file>
@@ -297,9 +294,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,6 +304,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,7 +533,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -545,32 +542,32 @@
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -594,26 +591,26 @@
     </row>
     <row r="2" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>3299</v>
+        <v>4299</v>
       </c>
       <c r="F2" s="3">
         <f>PRODUCT(D2,E2)</f>
-        <v>9897</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>16</v>
+        <v>12897</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -637,26 +634,26 @@
     </row>
     <row r="3" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>8412.85</v>
+        <v>8202.66</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F4" si="0">PRODUCT(D3,E3)</f>
-        <v>25238.550000000003</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>16</v>
+        <v>24607.98</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -680,13 +677,13 @@
     </row>
     <row r="4" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -698,8 +695,8 @@
         <f t="shared" si="0"/>
         <v>3919.98</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>16</v>
+      <c r="G4" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -722,19 +719,19 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>3</v>
+      <c r="A5" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9">
         <f>SUM(E2:E4)</f>
-        <v>13671.84</v>
+        <v>14461.65</v>
       </c>
       <c r="F5" s="9">
         <f>SUM(F2:F4)</f>
-        <v>39055.530000000006</v>
+        <v>41424.959999999999</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="1"/>
@@ -759,7 +756,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.dell.com/pt-br/shop/notebooks/notebook-vostro-3515-amd-ryzen/spd/vostro-15-3515-laptop/v3515w6264w?gacd=9657105-15015-5761040-275878141-0&amp;dgc=ST&amp;cid=71700000099538581&amp;gclid=CjwKCAiAoL6eBhA3EiwAXDom5ixfStG7MYR9VAGlp5NW5fTuFxouCSn3vR3LO0TDZ--eIs" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G4" r:id="rId3" display="https://www.kabum.com.br/produto/128917/impressora-multifuncional-hp-officejet-pro-9020-jato-de-tinta-colorido-wi-fi-bivolt-branco-e-preto-1mr69c-ac4?srsltid=Ad5pg_HkYbbeSa2dzw91s-6PVzZ1VGYvLd4QLS1ZZysdREEwpjplhlWReFI" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
